--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H2">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I2">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J2">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.0711453992741</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N2">
-        <v>3.0711453992741</v>
+        <v>10.412531</v>
       </c>
       <c r="O2">
-        <v>0.05247119903400454</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P2">
-        <v>0.05247119903400454</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q2">
-        <v>57.53339891123127</v>
+        <v>80.04365257118934</v>
       </c>
       <c r="R2">
-        <v>57.53339891123127</v>
+        <v>720.3928731407041</v>
       </c>
       <c r="S2">
-        <v>0.03579350325401155</v>
+        <v>0.03465973733494273</v>
       </c>
       <c r="T2">
-        <v>0.03579350325401155</v>
+        <v>0.0449552299857657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H3">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I3">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J3">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.4857968873752</v>
+        <v>32.24261766666667</v>
       </c>
       <c r="N3">
-        <v>30.4857968873752</v>
+        <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5208565887391037</v>
+        <v>0.5252303626496961</v>
       </c>
       <c r="P3">
-        <v>0.5208565887391037</v>
+        <v>0.6049954204026234</v>
       </c>
       <c r="Q3">
-        <v>571.1066346330252</v>
+        <v>743.5704786366613</v>
       </c>
       <c r="R3">
-        <v>571.1066346330252</v>
+        <v>6692.134307729952</v>
       </c>
       <c r="S3">
-        <v>0.3553050501442606</v>
+        <v>0.3219737812019913</v>
       </c>
       <c r="T3">
-        <v>0.3553050501442606</v>
+        <v>0.4176143991930815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H4">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I4">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J4">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9240875172576321</v>
+        <v>0.9959919999999999</v>
       </c>
       <c r="N4">
-        <v>0.9240875172576321</v>
+        <v>2.987976</v>
       </c>
       <c r="O4">
-        <v>0.01578823980601016</v>
+        <v>0.01622465163233374</v>
       </c>
       <c r="P4">
-        <v>0.01578823980601016</v>
+        <v>0.01868863765923708</v>
       </c>
       <c r="Q4">
-        <v>17.31142256300825</v>
+        <v>22.969296594176</v>
       </c>
       <c r="R4">
-        <v>17.31142256300825</v>
+        <v>206.723669347584</v>
       </c>
       <c r="S4">
-        <v>0.01077003047910739</v>
+        <v>0.009945945257988939</v>
       </c>
       <c r="T4">
-        <v>0.01077003047910739</v>
+        <v>0.012900335977098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H5">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I5">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J5">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>24.0490868279583</v>
+        <v>0.3973579999999999</v>
       </c>
       <c r="N5">
-        <v>24.0490868279583</v>
+        <v>1.192074</v>
       </c>
       <c r="O5">
-        <v>0.4108839724208816</v>
+        <v>0.006472938661476068</v>
       </c>
       <c r="P5">
-        <v>0.4108839724208816</v>
+        <v>0.00745596318343835</v>
       </c>
       <c r="Q5">
-        <v>450.5243243288962</v>
+        <v>9.163762114623998</v>
       </c>
       <c r="R5">
-        <v>450.5243243288962</v>
+        <v>82.47385903161599</v>
       </c>
       <c r="S5">
-        <v>0.2802866539096429</v>
+        <v>0.0039680046785757</v>
       </c>
       <c r="T5">
-        <v>0.2802866539096429</v>
+        <v>0.005146679595004484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7275626681526</v>
+        <v>23.061728</v>
       </c>
       <c r="H6">
-        <v>1.7275626681526</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I6">
-        <v>0.06290676833192843</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J6">
-        <v>0.06290676833192843</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.0711453992741</v>
+        <v>24.2807625</v>
       </c>
       <c r="N6">
-        <v>3.0711453992741</v>
+        <v>48.561525</v>
       </c>
       <c r="O6">
-        <v>0.05247119903400454</v>
+        <v>0.3955322060116276</v>
       </c>
       <c r="P6">
-        <v>0.05247119903400454</v>
+        <v>0.3037336126210463</v>
       </c>
       <c r="Q6">
-        <v>5.305596140254546</v>
+        <v>559.9563404076</v>
       </c>
       <c r="R6">
-        <v>5.305596140254546</v>
+        <v>3359.7380424456</v>
       </c>
       <c r="S6">
-        <v>0.003300793561730631</v>
+        <v>0.2424669421513734</v>
       </c>
       <c r="T6">
-        <v>0.003300793561730631</v>
+        <v>0.2096603145608412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H7">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J7">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.4857968873752</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N7">
-        <v>30.4857968873752</v>
+        <v>10.412531</v>
       </c>
       <c r="O7">
-        <v>0.5208565887391037</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P7">
-        <v>0.5208565887391037</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q7">
-        <v>52.66612461151213</v>
+        <v>6.684891179915557</v>
       </c>
       <c r="R7">
-        <v>52.66612461151213</v>
+        <v>60.16402061924001</v>
       </c>
       <c r="S7">
-        <v>0.03276540476196932</v>
+        <v>0.002894627680845548</v>
       </c>
       <c r="T7">
-        <v>0.03276540476196932</v>
+        <v>0.003754461606504562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H8">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I8">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J8">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9240875172576321</v>
+        <v>32.24261766666667</v>
       </c>
       <c r="N8">
-        <v>0.9240875172576321</v>
+        <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.01578823980601016</v>
+        <v>0.5252303626496961</v>
       </c>
       <c r="P8">
-        <v>0.01578823980601016</v>
+        <v>0.6049954204026234</v>
       </c>
       <c r="Q8">
-        <v>1.596419096920107</v>
+        <v>62.0997115275689</v>
       </c>
       <c r="R8">
-        <v>1.596419096920107</v>
+        <v>558.8974037481202</v>
       </c>
       <c r="S8">
-        <v>0.0009931871438456118</v>
+        <v>0.02688982350233186</v>
       </c>
       <c r="T8">
-        <v>0.0009931871438456118</v>
+        <v>0.03487730412213103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H9">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I9">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J9">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.0490868279583</v>
+        <v>0.9959919999999999</v>
       </c>
       <c r="N9">
-        <v>24.0490868279583</v>
+        <v>2.987976</v>
       </c>
       <c r="O9">
-        <v>0.4108839724208816</v>
+        <v>0.01622465163233374</v>
       </c>
       <c r="P9">
-        <v>0.4108839724208816</v>
+        <v>0.01868863765923708</v>
       </c>
       <c r="Q9">
-        <v>41.54630460714118</v>
+        <v>1.918293871893333</v>
       </c>
       <c r="R9">
-        <v>41.54630460714118</v>
+        <v>17.26464484704</v>
       </c>
       <c r="S9">
-        <v>0.02584738286438287</v>
+        <v>0.0008306412762950867</v>
       </c>
       <c r="T9">
-        <v>0.02584738286438287</v>
+        <v>0.00107737889790264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.00117606739432</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H10">
-        <v>7.00117606739432</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I10">
-        <v>0.254937993881049</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J10">
-        <v>0.254937993881049</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0711453992741</v>
+        <v>0.3973579999999999</v>
       </c>
       <c r="N10">
-        <v>3.0711453992741</v>
+        <v>1.192074</v>
       </c>
       <c r="O10">
-        <v>0.05247119903400454</v>
+        <v>0.006472938661476068</v>
       </c>
       <c r="P10">
-        <v>0.05247119903400454</v>
+        <v>0.00745596318343835</v>
       </c>
       <c r="Q10">
-        <v>21.501629668886</v>
+        <v>0.7653168061066666</v>
       </c>
       <c r="R10">
-        <v>21.501629668886</v>
+        <v>6.88785125496</v>
       </c>
       <c r="S10">
-        <v>0.01337690221826236</v>
+        <v>0.0003313901680596461</v>
       </c>
       <c r="T10">
-        <v>0.01337690221826236</v>
+        <v>0.0004298278742327219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.00117606739432</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H11">
-        <v>7.00117606739432</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I11">
-        <v>0.254937993881049</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J11">
-        <v>0.254937993881049</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4857968873752</v>
+        <v>24.2807625</v>
       </c>
       <c r="N11">
-        <v>30.4857968873752</v>
+        <v>48.561525</v>
       </c>
       <c r="O11">
-        <v>0.5208565887391037</v>
+        <v>0.3955322060116276</v>
       </c>
       <c r="P11">
-        <v>0.5208565887391037</v>
+        <v>0.3037336126210463</v>
       </c>
       <c r="Q11">
-        <v>213.4364315633355</v>
+        <v>46.76507231850001</v>
       </c>
       <c r="R11">
-        <v>213.4364315633355</v>
+        <v>280.590433911</v>
       </c>
       <c r="S11">
-        <v>0.1327861338328737</v>
+        <v>0.02024976460897064</v>
       </c>
       <c r="T11">
-        <v>0.1327861338328737</v>
+        <v>0.01750990044263123</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H12">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I12">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J12">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9240875172576321</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N12">
-        <v>0.9240875172576321</v>
+        <v>10.412531</v>
       </c>
       <c r="O12">
-        <v>0.01578823980601016</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P12">
-        <v>0.01578823980601016</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q12">
-        <v>6.46969941000197</v>
+        <v>43.84530766879467</v>
       </c>
       <c r="R12">
-        <v>6.46969941000197</v>
+        <v>263.071846012768</v>
       </c>
       <c r="S12">
-        <v>0.004025022183057153</v>
+        <v>0.01898547602907813</v>
       </c>
       <c r="T12">
-        <v>0.004025022183057153</v>
+        <v>0.01641667454138463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.632464</v>
+      </c>
+      <c r="H13">
+        <v>25.264928</v>
+      </c>
+      <c r="I13">
+        <v>0.3357893421386252</v>
+      </c>
+      <c r="J13">
+        <v>0.2520741677448068</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N13">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P13">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q13">
+        <v>407.3037069399306</v>
+      </c>
+      <c r="R13">
+        <v>2443.822241639584</v>
+      </c>
+      <c r="S13">
+        <v>0.176366757945373</v>
+      </c>
+      <c r="T13">
+        <v>0.1525037170874108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.00117606739432</v>
-      </c>
-      <c r="H13">
-        <v>7.00117606739432</v>
-      </c>
-      <c r="I13">
-        <v>0.254937993881049</v>
-      </c>
-      <c r="J13">
-        <v>0.254937993881049</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="N13">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="O13">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="P13">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="Q13">
-        <v>168.3718911425896</v>
-      </c>
-      <c r="R13">
-        <v>168.3718911425896</v>
-      </c>
-      <c r="S13">
-        <v>0.1047499356468558</v>
-      </c>
-      <c r="T13">
-        <v>0.1047499356468558</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.632464</v>
+      </c>
+      <c r="H14">
+        <v>25.264928</v>
+      </c>
+      <c r="I14">
+        <v>0.3357893421386252</v>
+      </c>
+      <c r="J14">
+        <v>0.2520741677448068</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.987976</v>
+      </c>
+      <c r="O14">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P14">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q14">
+        <v>12.581833084288</v>
+      </c>
+      <c r="R14">
+        <v>75.49099850572799</v>
+      </c>
+      <c r="S14">
+        <v>0.00544806509804972</v>
+      </c>
+      <c r="T14">
+        <v>0.004710922784236442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.632464</v>
+      </c>
+      <c r="H15">
+        <v>25.264928</v>
+      </c>
+      <c r="I15">
+        <v>0.3357893421386252</v>
+      </c>
+      <c r="J15">
+        <v>0.2520741677448068</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.192074</v>
+      </c>
+      <c r="O15">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P15">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q15">
+        <v>5.019610630111998</v>
+      </c>
+      <c r="R15">
+        <v>30.11766378067199</v>
+      </c>
+      <c r="S15">
+        <v>0.002173543814840722</v>
+      </c>
+      <c r="T15">
+        <v>0.001879455714201143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.632464</v>
+      </c>
+      <c r="H16">
+        <v>25.264928</v>
+      </c>
+      <c r="I16">
+        <v>0.3357893421386252</v>
+      </c>
+      <c r="J16">
+        <v>0.2520741677448068</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>24.2807625</v>
+      </c>
+      <c r="N16">
+        <v>48.561525</v>
+      </c>
+      <c r="O16">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P16">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q16">
+        <v>306.7258581738</v>
+      </c>
+      <c r="R16">
+        <v>1226.9034326952</v>
+      </c>
+      <c r="S16">
+        <v>0.1328154992512836</v>
+      </c>
+      <c r="T16">
+        <v>0.07656339761757379</v>
       </c>
     </row>
   </sheetData>
